--- a/novametrics/tests/single_load/Runs/5/Inputs.xlsx
+++ b/novametrics/tests/single_load/Runs/5/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\Runs\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\novametrics\tests\single_load\Runs\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD7F65-EBDF-4B4D-B905-92AA2118DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CAB763-B3CC-45AD-9033-311412694F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="11988" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>post_name</t>
   </si>
@@ -129,12 +129,6 @@
     <t>wholesale_price_folder</t>
   </si>
   <si>
-    <t>Wholesale Prices.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Wholesale Prices</t>
-  </si>
-  <si>
     <t>load_file</t>
   </si>
   <si>
@@ -153,124 +147,142 @@
     <t>PV|existing_kw</t>
   </si>
   <si>
-    <t>./single_load/Runs/5/Loads/base_load.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Loads/netload_all.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Loads/netloadstor_pvprod.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Solar Factors/pv_prod.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Loads/netloadstor_pvstorprod.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Solar Factors/pv_prodstor.csv</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/REopt Posts</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/REopt Results</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Solar Factors</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/5/Metrics</t>
-  </si>
-  <si>
     <t>LoadProfile|year</t>
   </si>
   <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>loads</t>
+  </si>
+  <si>
+    <t>Home load only - no techs</t>
+  </si>
+  <si>
+    <t>Actual loads - net load</t>
+  </si>
+  <si>
+    <t>netload_pvstor</t>
+  </si>
+  <si>
+    <t>Actual loads - net load but PV separate prodfac</t>
+  </si>
+  <si>
+    <t>netloadstor_pvstor</t>
+  </si>
+  <si>
+    <t>Actual loads - net load with bess charge and PV prodfac with bess discharge</t>
+  </si>
+  <si>
+    <t>fixedtech_customer</t>
+  </si>
+  <si>
+    <t>reopt_optmized</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer savings</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer savings and grid benefit</t>
+  </si>
+  <si>
+    <t>fixedtech_climate</t>
+  </si>
+  <si>
+    <t>sizedtech_customer</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for customer savings</t>
+  </si>
+  <si>
+    <t>sizedtech_climate</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ElectricTariff|coincident_peak_load_active_timesteps</t>
+  </si>
+  <si>
+    <t>ElectricTariff|coincident_peak_load_charge_us_dollars_per_kw</t>
+  </si>
+  <si>
+    <t>"null"</t>
+  </si>
+  <si>
     <t>include_climate_in_objective</t>
   </si>
   <si>
-    <t>ElectricTariff|urdb_label</t>
-  </si>
-  <si>
-    <t>ElectricTariff|coincident_peak_load_active_timesteps</t>
-  </si>
-  <si>
-    <t>ElectricTariff|coincident_peak_load_charge_us_dollars_per_kw</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>loads</t>
-  </si>
-  <si>
-    <t>Home load only - no techs</t>
-  </si>
-  <si>
-    <t>5d3f1f715457a3d71ddc8c3b</t>
-  </si>
-  <si>
-    <t>"null"</t>
-  </si>
-  <si>
-    <t>Actual loads - net load</t>
-  </si>
-  <si>
-    <t>netload_pvstor</t>
-  </si>
-  <si>
-    <t>Actual loads - net load but PV separate prodfac</t>
-  </si>
-  <si>
-    <t>netloadstor_pvstor</t>
-  </si>
-  <si>
-    <t>Actual loads - net load with bess charge and PV prodfac with bess discharge</t>
-  </si>
-  <si>
-    <t>fixedtech_customer</t>
-  </si>
-  <si>
-    <t>reopt_optmized</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer savings</t>
+    <t>Sized techs - optimal dispatch for customer savings and grid benefit</t>
+  </si>
+  <si>
+    <t>PV|azimuth</t>
   </si>
   <si>
     <t>fixedtech_grid</t>
   </si>
   <si>
-    <t>Fixed techs - optimal dispatch for grid benefit</t>
-  </si>
-  <si>
-    <t>fixedtech_allbenefits</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer savings and grid benefit</t>
-  </si>
-  <si>
-    <t>fixedtech_climate</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer savings and climate impact</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>sizedtech_customer</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for customer savings</t>
-  </si>
-  <si>
-    <t>sizedtech_climate</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for customer savings and climate impact</t>
-  </si>
-  <si>
-    <t>./single_load/Runs/default_post.json</t>
+    <t>fixedtech_custgrid</t>
+  </si>
+  <si>
+    <t>sizedtech_custgrid</t>
+  </si>
+  <si>
+    <t>sizedtech_grid</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for grid benefits</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer grid and climate benefits</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for customer grid and climate benefits</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for grid benefits</t>
+  </si>
+  <si>
+    <t>ElectricTariff|urdb_response</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Posts</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Results</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Metrics</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/base_load.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netload_all.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netloadstor_pvprod.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_prod.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netloadstor_pvstorprod.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_prodstor.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/default_post_2019.json</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Wholesale Prices</t>
+  </si>
+  <si>
+    <t>2019.csv</t>
   </si>
 </sst>
 </file>
@@ -626,10 +638,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
@@ -648,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -706,34 +718,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,22 +757,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -768,165 +781,141 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>2019</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
       <c r="L4">
         <v>6</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>135</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>2019</v>
       </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
       <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -934,181 +923,175 @@
       <c r="K6">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
+      <c r="M6">
+        <v>135</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
+      <c r="M7">
+        <v>135</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>2019</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
+      <c r="M8">
+        <v>135</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>2019</v>
       </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
+      <c r="M9">
+        <v>135</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
       </c>
       <c r="O9">
         <v>4</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1116,37 +1099,37 @@
       <c r="K10">
         <v>1000</v>
       </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10">
+      <c r="M10">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -1154,31 +1137,113 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>1000</v>
       </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11">
+      <c r="M11">
+        <v>135</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
+        <v>135</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1000</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="M13">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1000</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1000</v>
       </c>
     </row>
@@ -1190,15 +1255,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DBBF0-0970-43FC-8A86-B4DAB4C5D0D5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
@@ -1228,189 +1293,262 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1564,7 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1441,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1449,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,10 +1595,266 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009322A9D9445ED444BD9641332B421311" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbdda4026d18f9beaf860fa9ca0c2855">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1847d55e-8c8d-4594-bc56-9853151bd0de" xmlns:ns3="e506ad06-b02b-4936-b657-85580fa419f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a2544b3eb29a11a7d34f16ad0b0fff6" ns2:_="" ns3:_="">
+    <xsd:import namespace="1847d55e-8c8d-4594-bc56-9853151bd0de"/>
+    <xsd:import namespace="e506ad06-b02b-4936-b657-85580fa419f5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1847d55e-8c8d-4594-bc56-9853151bd0de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e506ad06-b02b-4936-b657-85580fa419f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17897003-1C7F-4B58-9AA8-A0E9788CC496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1847d55e-8c8d-4594-bc56-9853151bd0de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e506ad06-b02b-4936-b657-85580fa419f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9393F3BF-8A82-4F01-9654-427E2B03731A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1847d55e-8c8d-4594-bc56-9853151bd0de"/>
+    <ds:schemaRef ds:uri="e506ad06-b02b-4936-b657-85580fa419f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AE5D83D-3B34-4F44-AE1E-7B540D483C43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/novametrics/tests/single_load/Runs/5/Inputs.xlsx
+++ b/novametrics/tests/single_load/Runs/5/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\novametrics\tests\single_load\Runs\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CAB763-B3CC-45AD-9033-311412694F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3DFDB-B73C-4879-A50F-62FBA40884DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>post_name</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>2019.csv</t>
+  </si>
+  <si>
+    <t>ElectricTariff|wholesale_rate_above_site_load_us_dollars_per_kwh</t>
   </si>
 </sst>
 </file>
@@ -718,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,18 +738,19 @@
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,34 +779,37 @@
         <v>55</v>
       </c>
       <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -818,11 +825,11 @@
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -839,11 +846,11 @@
       <c r="F3">
         <v>2019</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -859,17 +866,17 @@
       <c r="F4">
         <v>2019</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>135</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -885,17 +892,17 @@
       <c r="F5">
         <v>2019</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>135</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -917,32 +924,32 @@
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
       <c r="K6">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="N6">
         <v>135</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -962,31 +969,34 @@
         <v>56</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="N7">
         <v>135</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>76</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
       </c>
       <c r="P7">
         <v>4</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1002,32 +1012,32 @@
       <c r="F8">
         <v>2019</v>
       </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="N8">
         <v>135</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>76</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
       </c>
       <c r="P8">
         <v>4</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1046,32 +1056,32 @@
       <c r="F9">
         <v>2019</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="M9">
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="N9">
         <v>135</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>76</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1093,32 +1103,32 @@
       <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>135</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1138,31 +1148,34 @@
         <v>56</v>
       </c>
       <c r="J11">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>135</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>76</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1178,32 +1191,32 @@
       <c r="F12">
         <v>2019</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>135</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1222,28 +1235,28 @@
       <c r="F13">
         <v>2019</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>135</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1000</v>
       </c>
     </row>
@@ -1257,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DBBF0-0970-43FC-8A86-B4DAB4C5D0D5}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>

--- a/novametrics/tests/single_load/Runs/5/Inputs.xlsx
+++ b/novametrics/tests/single_load/Runs/5/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\novametrics\tests\single_load\Runs\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3DFDB-B73C-4879-A50F-62FBA40884DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33DDB03-EAF2-44B3-85FF-F11B4D1B3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13872" windowHeight="9960" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="91">
   <si>
     <t>post_name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>solar_production_factor_file</t>
   </si>
   <si>
-    <t>netload_all</t>
-  </si>
-  <si>
     <t>eb14ACcUKmGtJT8WeB4kuJayhFNhWTSxpLTonqZ7</t>
   </si>
   <si>
@@ -156,16 +153,148 @@
     <t>loads</t>
   </si>
   <si>
-    <t>Home load only - no techs</t>
-  </si>
-  <si>
-    <t>Actual loads - net load</t>
-  </si>
-  <si>
-    <t>netload_pvstor</t>
-  </si>
-  <si>
-    <t>Actual loads - net load but PV separate prodfac</t>
+    <t>fixedtech_customer</t>
+  </si>
+  <si>
+    <t>reopt_optmized</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer savings</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer savings and grid benefit</t>
+  </si>
+  <si>
+    <t>fixedtech_climate</t>
+  </si>
+  <si>
+    <t>sizedtech_customer</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for customer savings</t>
+  </si>
+  <si>
+    <t>sizedtech_climate</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ElectricTariff|coincident_peak_load_active_timesteps</t>
+  </si>
+  <si>
+    <t>ElectricTariff|coincident_peak_load_charge_us_dollars_per_kw</t>
+  </si>
+  <si>
+    <t>"null"</t>
+  </si>
+  <si>
+    <t>include_climate_in_objective</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for customer savings and grid benefit</t>
+  </si>
+  <si>
+    <t>PV|azimuth</t>
+  </si>
+  <si>
+    <t>fixedtech_grid</t>
+  </si>
+  <si>
+    <t>fixedtech_custgrid</t>
+  </si>
+  <si>
+    <t>sizedtech_custgrid</t>
+  </si>
+  <si>
+    <t>sizedtech_grid</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for grid benefits</t>
+  </si>
+  <si>
+    <t>Fixed techs - optimal dispatch for customer grid and climate benefits</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for customer grid and climate benefits</t>
+  </si>
+  <si>
+    <t>Sized techs - optimal dispatch for grid benefits</t>
+  </si>
+  <si>
+    <t>ElectricTariff|urdb_response</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Posts</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Results</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/base_load.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_prod.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/default_post_2019.json</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Wholesale Prices</t>
+  </si>
+  <si>
+    <t>2019.csv</t>
+  </si>
+  <si>
+    <t>ElectricTariff|wholesale_rate_above_site_load_us_dollars_per_kwh</t>
+  </si>
+  <si>
+    <t>PV|pbi_us_dollars_per_kwh</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>bau</t>
+  </si>
+  <si>
+    <t>reopt_optmized_optsol</t>
+  </si>
+  <si>
+    <t>homeload only no techs</t>
+  </si>
+  <si>
+    <t>Replicate actual loads and exports</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Metrics</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/bau_netload.csv</t>
+  </si>
+  <si>
+    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_export.csv</t>
+  </si>
+  <si>
+    <t>ochre</t>
+  </si>
+  <si>
+    <t>fixedtech_ochre_disp_optsol</t>
+  </si>
+  <si>
+    <t>fixedtech_ochre_nondisp_optsol</t>
+  </si>
+  <si>
+    <t>sizedtech_ochre_disp_optsol</t>
+  </si>
+  <si>
+    <t>sizedtech_ochre_nondisp_optsol</t>
+  </si>
+  <si>
+    <t>reopt_root_url</t>
   </si>
   <si>
     <t>netloadstor_pvstor</t>
@@ -174,118 +303,13 @@
     <t>Actual loads - net load with bess charge and PV prodfac with bess discharge</t>
   </si>
   <si>
-    <t>fixedtech_customer</t>
-  </si>
-  <si>
-    <t>reopt_optmized</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer savings</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer savings and grid benefit</t>
-  </si>
-  <si>
-    <t>fixedtech_climate</t>
-  </si>
-  <si>
-    <t>sizedtech_customer</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for customer savings</t>
-  </si>
-  <si>
-    <t>sizedtech_climate</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ElectricTariff|coincident_peak_load_active_timesteps</t>
-  </si>
-  <si>
-    <t>ElectricTariff|coincident_peak_load_charge_us_dollars_per_kw</t>
-  </si>
-  <si>
-    <t>"null"</t>
-  </si>
-  <si>
-    <t>include_climate_in_objective</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for customer savings and grid benefit</t>
-  </si>
-  <si>
-    <t>PV|azimuth</t>
-  </si>
-  <si>
-    <t>fixedtech_grid</t>
-  </si>
-  <si>
-    <t>fixedtech_custgrid</t>
-  </si>
-  <si>
-    <t>sizedtech_custgrid</t>
-  </si>
-  <si>
-    <t>sizedtech_grid</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for grid benefits</t>
-  </si>
-  <si>
-    <t>Fixed techs - optimal dispatch for customer grid and climate benefits</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for customer grid and climate benefits</t>
-  </si>
-  <si>
-    <t>Sized techs - optimal dispatch for grid benefits</t>
-  </si>
-  <si>
-    <t>ElectricTariff|urdb_response</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Posts</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/REopt Results</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Metrics</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/base_load.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netload_all.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netloadstor_pvprod.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_prod.csv</t>
-  </si>
-  <si>
     <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Loads/netloadstor_pvstorprod.csv</t>
   </si>
   <si>
     <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/5/Solar Factors/pv_prodstor.csv</t>
   </si>
   <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Runs/default_post_2019.json</t>
-  </si>
-  <si>
-    <t>C:/Users/IMANOGAR/Documents/Indu (22408)/Github/nova_metrics/novametrics/tests/single_load/Wholesale Prices</t>
-  </si>
-  <si>
-    <t>2019.csv</t>
-  </si>
-  <si>
-    <t>ElectricTariff|wholesale_rate_above_site_load_us_dollars_per_kwh</t>
+    <t>http://localhost:8000</t>
   </si>
 </sst>
 </file>
@@ -638,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729E14E-2CD5-4EB7-BC48-68BEC5CD5108}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +727,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +735,15 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J11"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T1:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +782,7 @@
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,25 +793,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -788,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
         <v>31</v>
@@ -808,19 +840,22 @@
       <c r="S1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -828,40 +863,51 @@
       <c r="N2">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>76</v>
+      </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
       <c r="N3">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -873,56 +919,83 @@
         <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="T4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>2019</v>
       </c>
-      <c r="M5">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <v>6</v>
       </c>
       <c r="N5">
         <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -934,7 +1007,7 @@
         <v>135</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -949,28 +1022,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7">
-        <v>9.9999999999999994E-12</v>
-      </c>
       <c r="K7">
         <v>6</v>
       </c>
@@ -981,7 +1048,7 @@
         <v>135</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -995,19 +1062,25 @@
       <c r="S7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -1022,7 +1095,7 @@
         <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P8">
         <v>4</v>
@@ -1036,72 +1109,81 @@
       <c r="S8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
       </c>
       <c r="F9">
         <v>2019</v>
       </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
       <c r="K9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="N9">
         <v>135</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1113,7 +1195,7 @@
         <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1128,28 +1210,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11">
-        <v>9.9999999999999994E-12</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1160,7 +1236,7 @@
         <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1174,19 +1250,25 @@
       <c r="S11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -1201,7 +1283,7 @@
         <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1215,49 +1297,360 @@
       <c r="S12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
       <c r="K13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>135</v>
       </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
       <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>135</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>2019</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>135</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>2019</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>135</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>2019</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="L17">
         <v>1000</v>
       </c>
-      <c r="R13">
+      <c r="N17">
+        <v>135</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="Q17">
         <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1000</v>
+      </c>
+      <c r="T17">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>2019</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>135</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>2019</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>135</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1000</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1000</v>
+      </c>
+      <c r="T19">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>2019</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>135</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DBBF0-0970-43FC-8A86-B4DAB4C5D0D5}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,262 +1699,422 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1600,7 +2153,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1608,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
